--- a/tests/robot_framework/files/testdossiers/woo4/inventory.xlsx
+++ b/tests/robot_framework/files/testdossiers/woo4/inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Storage/Repos/minvws/nl-rdo-woo-web-private/tests/robot_framework/files/testdossiers/woo4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78ABEF1-C644-F94B-9801-90FDD6641F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28D75B-7350-424D-9138-008E8EC186D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38040" yWindow="2720" windowWidth="24480" windowHeight="15660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,6 +173,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -190,9 +193,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -207,13 +207,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76A35081-2A98-E844-A601-28F1287ED4CE}" name="Table1" displayName="Table1" ref="A1:O6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76A35081-2A98-E844-A601-28F1287ED4CE}" name="Table1" displayName="Table1" ref="A1:O6" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:O6" xr:uid="{76A35081-2A98-E844-A601-28F1287ED4CE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O6">
     <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{548192E6-667E-1747-A341-F52655945C14}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{548192E6-667E-1747-A341-F52655945C14}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{321E6E9A-9E4E-414C-9D5D-54B1362D4956}" name="Matter"/>
     <tableColumn id="3" xr3:uid="{F47D925D-2025-354D-9B6A-6A23FBF10426}" name="Family"/>
     <tableColumn id="4" xr3:uid="{FAAC5DE2-B8E8-3548-89C5-474A8C59CD9D}" name="Email Thread ID"/>
@@ -415,7 +415,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,7 +487,7 @@
         <v>181000</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>181000</v>
@@ -522,7 +522,7 @@
         <v>181004</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>181004</v>
@@ -557,7 +557,7 @@
         <v>181021</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>181021</v>
@@ -592,7 +592,7 @@
         <v>181024</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>181024</v>
@@ -627,7 +627,7 @@
         <v>181026</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>181026</v>
